--- a/AsposeDemo/AsposeDemo/ReportTemplates/ReportTemplate.xlsx
+++ b/AsposeDemo/AsposeDemo/ReportTemplates/ReportTemplate.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,9 +153,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +475,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +488,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -486,7 +496,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -494,51 +504,51 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/AsposeDemo/AsposeDemo/ReportTemplates/ReportTemplate.xlsx
+++ b/AsposeDemo/AsposeDemo/ReportTemplates/ReportTemplate.xlsx
@@ -474,9 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
